--- a/학습자료/단답형/영어_유의어_기출예정.xlsx
+++ b/학습자료/단답형/영어_유의어_기출예정.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2193,6 +2193,1106 @@
         </is>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>extermination</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>annihilation</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>eradication</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>melancholy</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>우울</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>dejection</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>우울</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>recession</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>불경기</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>slump</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>불경기</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>stagnation</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>불경기</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>downturn</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>불경기</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>efficacy</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>효능</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>potency</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>효능</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>wariness</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>조심</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>조심</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>vigilance</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>조심</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>prudence</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>조심</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>solution</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>해결책</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>remedy</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>해결책</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>antidote</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>해결책</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>해결책</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>predicament</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>곤경</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>difficulty</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>곤경</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>plight</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>곤경</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>quandary</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>곤경</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>garm</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>손해, 손상</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>detriment</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>손해, 손상</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>disfigurement</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>손해, 손상</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>mischief</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>손해, 손상</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>award</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>상</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>reward</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>상</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>treasure</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>소중한 것</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>accolade</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>상</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>complexity</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>복잡</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>intricacy</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>복잡</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>involution</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>복잡</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>fall from</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>떨어지다</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>come off</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>떨어지다</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>pitch</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>습격하다</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>chop upon</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>습격하다</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>습격하다</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>assault</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>습격하다</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>assail</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>습격하다</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>call on</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>ask for</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>put in for</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>summon</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>necessitate</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>demand</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>stipulate</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>enjoin</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>require</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>기출예정</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/영어_유의어_기출예정.xlsx
+++ b/학습자료/단답형/영어_유의어_기출예정.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,27 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>질문2</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>대답</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>질문</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>대답</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>구분</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>날짜</t>
         </is>
       </c>
     </row>
@@ -476,6 +481,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>in company with</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -498,6 +508,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>together with</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -520,6 +535,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>alongside</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -542,6 +562,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>along with</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -564,6 +589,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(as) compared with[to]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -586,6 +616,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>as against</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -608,6 +643,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>by[in] contrast</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -630,6 +670,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>instead (of)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -652,6 +697,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>on behalf of</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -674,6 +724,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>in substitute for</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -696,6 +751,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>in lieu of</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -718,6 +778,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>in the event of</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -740,6 +805,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>on the occasion (of)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -762,6 +832,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>in time (of)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -784,6 +859,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>omnipresent</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -806,6 +886,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>immanent</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -828,6 +913,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>current</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -850,6 +940,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>prevailing</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -872,6 +967,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>rife</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -894,6 +994,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>deceitful</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -916,6 +1021,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>delusive</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -938,6 +1048,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>devious</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -960,6 +1075,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>fraudulent</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -982,6 +1102,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>convincing</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1004,6 +1129,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>compelling</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1026,6 +1156,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>cogent</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1048,6 +1183,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>tragic</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1070,6 +1210,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>miserable</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1092,6 +1237,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>deplorable</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1114,6 +1264,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>calamitous</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1136,6 +1291,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>catastrophic</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1158,6 +1318,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>infuriate</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1180,6 +1345,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>displease</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1202,6 +1372,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>exasperate</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1224,6 +1399,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>cruel</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1246,6 +1426,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>pitiless</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1268,6 +1453,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ruthless</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1290,6 +1480,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>uncharitable</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1312,6 +1507,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>inexorable</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1334,6 +1534,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>relentless</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1356,6 +1561,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>merciless</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1378,6 +1588,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>creditable</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1400,6 +1615,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>respectable</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1422,6 +1642,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>venerable</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1444,6 +1669,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>assured</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1466,6 +1696,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>assertive</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1488,6 +1723,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>sanguine</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1510,6 +1750,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>buoyant</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1532,6 +1777,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>arrange</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1554,6 +1804,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1576,6 +1831,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>sequence</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1598,6 +1858,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>align</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1620,6 +1885,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>hand out</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1642,6 +1912,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>give away</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1664,6 +1939,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>deal out</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1686,6 +1966,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>serve out</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1708,6 +1993,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>keep on</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1730,6 +2020,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>go on</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1752,6 +2047,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>stick at</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1774,6 +2074,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1796,6 +2101,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>burst into</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1818,6 +2128,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>rush into</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1840,6 +2155,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>invade</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1862,6 +2182,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>trespass</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1884,6 +2209,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>contentment</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1906,6 +2236,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>euphoria</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1928,6 +2263,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>delight</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1950,6 +2290,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1972,6 +2317,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>sparkle</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1994,6 +2344,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>vivacity</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2016,6 +2371,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>vigor</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2038,6 +2398,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>faith</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2060,6 +2425,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>credence</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2082,6 +2452,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>reliance</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2104,6 +2479,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>conviction</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2126,6 +2506,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>silence</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2148,6 +2533,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>quiet</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2170,6 +2560,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>serenity</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2192,6 +2587,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>composure</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2214,6 +2614,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>extermination</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2236,6 +2641,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>annihilation</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2258,6 +2668,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>eradication</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2267,7 +2682,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>우울</t>
+          <t>우울, 불경기</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2278,6 +2693,11 @@
       <c r="D84" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>melancholy</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2709,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>우울</t>
+          <t>우울, 불경기</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2300,6 +2720,11 @@
       <c r="D85" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>dejection</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2736,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>불경기</t>
+          <t>우울, 불경기</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2322,6 +2747,11 @@
       <c r="D86" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>recession</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2763,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>불경기</t>
+          <t>우울, 불경기</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2344,6 +2774,11 @@
       <c r="D87" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>slump</t>
         </is>
       </c>
     </row>
@@ -2355,7 +2790,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>불경기</t>
+          <t>우울, 불경기</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2366,6 +2801,11 @@
       <c r="D88" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>stagnation</t>
         </is>
       </c>
     </row>
@@ -2377,7 +2817,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>불경기</t>
+          <t>우울, 불경기</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2388,6 +2828,11 @@
       <c r="D89" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>downturn</t>
         </is>
       </c>
     </row>
@@ -2399,7 +2844,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>효능</t>
+          <t>효율, 효능</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2410,6 +2855,11 @@
       <c r="D90" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>efficacy</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2871,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>효능</t>
+          <t>효율, 효능</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2432,6 +2882,11 @@
       <c r="D91" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>potency</t>
         </is>
       </c>
     </row>
@@ -2456,6 +2911,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>wariness</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2478,6 +2938,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2500,6 +2965,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>vigilance</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2522,6 +2992,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>prudence</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2531,7 +3006,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>해결책</t>
+          <t>해결책, 곤경</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2542,6 +3017,11 @@
       <c r="D96" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>solution</t>
         </is>
       </c>
     </row>
@@ -2553,7 +3033,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>해결책</t>
+          <t>해결책, 곤경</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2564,6 +3044,11 @@
       <c r="D97" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>remedy</t>
         </is>
       </c>
     </row>
@@ -2575,7 +3060,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>해결책</t>
+          <t>해결책, 곤경</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2586,6 +3071,11 @@
       <c r="D98" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>antidote</t>
         </is>
       </c>
     </row>
@@ -2597,7 +3087,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>해결책</t>
+          <t>해결책, 곤경</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2608,6 +3098,11 @@
       <c r="D99" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>answer</t>
         </is>
       </c>
     </row>
@@ -2619,7 +3114,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>곤경</t>
+          <t>해결책, 곤경</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2630,6 +3125,11 @@
       <c r="D100" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>predicament</t>
         </is>
       </c>
     </row>
@@ -2641,7 +3141,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>곤경</t>
+          <t>해결책, 곤경</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2652,6 +3152,11 @@
       <c r="D101" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>difficulty</t>
         </is>
       </c>
     </row>
@@ -2663,7 +3168,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>곤경</t>
+          <t>해결책, 곤경</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2674,6 +3179,11 @@
       <c r="D102" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>plight</t>
         </is>
       </c>
     </row>
@@ -2685,7 +3195,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>곤경</t>
+          <t>해결책, 곤경</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2696,6 +3206,11 @@
       <c r="D103" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>quandary</t>
         </is>
       </c>
     </row>
@@ -2720,6 +3235,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>garm</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2742,6 +3262,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>detriment</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2764,6 +3289,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>disfigurement</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2786,6 +3316,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>mischief</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2795,7 +3330,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>상</t>
+          <t>상, 소중한 것</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2806,6 +3341,11 @@
       <c r="D108" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>award</t>
         </is>
       </c>
     </row>
@@ -2817,7 +3357,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>상</t>
+          <t>상, 소중한 것</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2828,6 +3368,11 @@
       <c r="D109" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -2839,7 +3384,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>소중한 것</t>
+          <t>상, 소중한 것</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2850,6 +3395,11 @@
       <c r="D110" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>treasure</t>
         </is>
       </c>
     </row>
@@ -2861,7 +3411,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>상</t>
+          <t>상, 소중한 것</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2872,6 +3422,11 @@
       <c r="D111" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>accolade</t>
         </is>
       </c>
     </row>
@@ -2896,6 +3451,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>complexity</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2918,6 +3478,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>intricacy</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2940,6 +3505,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>involution</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2949,7 +3519,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>떨어지다</t>
+          <t>떨어지다, 습격하다</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2960,6 +3530,11 @@
       <c r="D115" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>fall from</t>
         </is>
       </c>
     </row>
@@ -2971,7 +3546,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>떨어지다</t>
+          <t>떨어지다, 습격하다</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2982,6 +3557,11 @@
       <c r="D116" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>come off</t>
         </is>
       </c>
     </row>
@@ -2993,7 +3573,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>습격하다</t>
+          <t>떨어지다, 습격하다</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3004,6 +3584,11 @@
       <c r="D117" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>pitch</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3600,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>습격하다</t>
+          <t>떨어지다, 습격하다</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3026,6 +3611,11 @@
       <c r="D118" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>chop upon</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3627,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>습격하다</t>
+          <t>떨어지다, 습격하다</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3048,6 +3638,11 @@
       <c r="D119" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>attack</t>
         </is>
       </c>
     </row>
@@ -3059,7 +3654,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>습격하다</t>
+          <t>떨어지다, 습격하다</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3070,6 +3665,11 @@
       <c r="D120" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>assault</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3681,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>습격하다</t>
+          <t>떨어지다, 습격하다</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3092,6 +3692,11 @@
       <c r="D121" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>assail</t>
         </is>
       </c>
     </row>
@@ -3116,6 +3721,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>call on</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3138,6 +3748,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>ask for</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3160,6 +3775,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>put in for</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3182,6 +3802,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>summon</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3204,6 +3829,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>necessitate</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3226,6 +3856,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>demand</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3248,6 +3883,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>stipulate</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3270,6 +3910,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>enjoin</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3290,6 +3935,11 @@
       <c r="D130" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>require</t>
         </is>
       </c>
     </row>
